--- a/PLScombined/PLScombined_predicted_factors_matrix_9.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.8930348204924996</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9068448770836679</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9267176925954256</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.9516692555012602</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.9803198873233515</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.012372586686767</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.047658473847248</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.084806731147337</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.123236182280874</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.162448578092306</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.202025883377214</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.2416226246432</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.280957170306016</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.319803145624412</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.357981440449188</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.395352987735598</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.432781591183981</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.469243816257375</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.502582947123547</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.536943304808966</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.570213034639534</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.602380913355581</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.633443947675686</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.663407792067789</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.692285373352327</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.720095277192099</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.746860329200356</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.772606435631037</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.797361655697365</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.821155463535833</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.8440181627136</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.865980423599191</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.887072920247673</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.907326048243893</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.926769708563432</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.945433145291197</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.963344827145329</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.98053236453208</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.998225726368693</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.015217374814349</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.031537369762662</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.047210774355675</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.062260575616189</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.6475114840298675</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.6774185179432672</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.683594807971732</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.6724516075598359</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.6454728766323717</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.6103797406125643</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.573329501553249</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.5334695973559402</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4925715683672354</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.4519554663151478</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4125835460460623</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3751321767637289</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.340051833669872</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.3076164744802268</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2779638990176395</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2511285525788658</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.227985225045798</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.207261885786496</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1873128714997388</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1714564807642118</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1576348979539905</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1457040302990127</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1355138264318238</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1269113425675643</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1197446725338568</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1138662257252693</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1091350906085593</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.10541860062979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1025932781151609</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1005453098260695</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.09917067486201149</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.09837501763543294</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.09807333724215787</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09818954840994498</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.09865595696181553</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.09941268307145967</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1004070581272896</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1015930148673429</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1033645226815096</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1052392390231723</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1071784805452422</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.109155038392885</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1111480115799826</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.483289585703071</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3497662397097568</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2431634827827457</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1587737117006375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.09119313926915201</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.03974686548263393</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.001521250886109955</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.02665090341400546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0469483494025501</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.06099073319532238</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.07011600792527113</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.07542393305240033</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.07781306491375231</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.07801280368523561</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.07661099653704315</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.07407758230800807</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.07142602889570612</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.06818355471561277</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.06337251399362007</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.05977722161084614</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.05614174019537238</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.05255779454373172</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.04910595252977071</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.04584400467120262</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.04281021086789978</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.040027427771269</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.03750664425597839</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.03524984618649647</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.03325231090337078</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.03150443922700762</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.0299932141695057</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.0287033569861212</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.02761823661497823</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.02672057763477839</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.02599300358936228</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.02541844606743749</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.0249804447696212</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.02466335957575973</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02459383474393935</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02461013542946072</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02469844530532013</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.02484642170786019</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02504420414285717</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.2732562555425131</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2057700910554191</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1474624342433602</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09873384952370468</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05830019699496791</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02663740059791027</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002464434797493604</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.01588256212195282</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.02935333646875393</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0388263190795913</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.0450742734786203</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04876142045426636</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.05044944713909877</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.05060711786472732</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.04962113266444424</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04780700303885593</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04594217806118718</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04359143922828131</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0399512640968387</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.03730219421816627</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.03454763878196962</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.03178820343257428</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.02908991722857927</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.02649974368972068</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.02405028450197694</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.02176282518537238</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01964974449172767</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01771648695206161</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01596318319141894</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01438597586930313</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.0129780980261857</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01173074351200259</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01063376338116392</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.009676217254901972</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.008846804313709728</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.008134194946822453</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.007527280793553227</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.007015358227526758</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.006703810178317474</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.006445358592853842</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.006236111538136488</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.006073035490528494</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.005952141051108455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.04926868417997783</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.04365298613916571</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03617237795039502</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.02836960126910169</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.0208707490642603</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01420962582645792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.008641740921942523</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.0040309769191546</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0002919685964639417</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002694198413510721</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.005049151691889018</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.006885640737455481</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.008302884772894696</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.009385368917504773</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01020340183544498</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01081450298300791</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01130276072477083</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01164836283714112</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01178044205228299</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.012013178886513</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.012168820210618</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01227332423904361</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01234258221519927</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01238760259084715</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01241603351619647</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01243314893921737</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01244255671802517</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01244670214613229</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01244722323029616</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01244520080106997</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01244133447301182</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01243606625542643</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01242966713954508</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01242229736192142</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01241404801437359</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01240496934428916</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01239508966426639</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01238442762502084</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01249103948263105</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01257167892010245</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01263021164255828</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01267156823979578</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01269977793850235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.3783232296849818</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.289968936834395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.2216772077618793</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.1685888923851712</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1251751428780666</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.09185806760316964</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.06743003233585058</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.04846506332668495</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.03382049419312128</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.02260074060710385</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.01409737088999882</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.007745753627334062</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.00309359055359806</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.000222514171161251</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.002494907757265496</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.003958750314553509</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.00485944591352739</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.005309304391033759</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.005269312886517784</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.005116872290977565</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.004784464895172252</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.004328992641484427</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.003793721297999858</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.003212461559053062</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.002611509224817257</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.00201102200407412</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001426123709884721</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0008678242778925858</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0003437956894852609</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.0001409724855039871</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.0005836208130601312</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.0009829571671370317</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.001339071350412821</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.001653016616024352</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.001926548622947886</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.002161913461036872</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.002361677284620678</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.002528591052107552</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.002672934285205157</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.002777728521268603</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.002850391837799695</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.002896536680240662</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.002920643680203379</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.006734777066596129</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.006294679554238538</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01292218482638324</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01609143190711274</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01680134395086463</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0166314017086232</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0164664615012178</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01574221782850094</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01471318353442281</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01353140470209952</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01228859628523328</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01104102721249194</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.009823510124524041</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.008657377859169217</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.007555189394289072</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.006523629656295269</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.005745334765604382</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.004930907824161681</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.003843826810100655</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.003212941086301153</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.002575140087564284</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.001957421933631566</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.001374012179010622</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.000831152414329313</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0003303641153625022</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.0001294267026529803</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0005506130198552877</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.0009361745030685292</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001289269367870637</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001613012836021752</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001910361478611654</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.002184057316823604</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.002436605606210345</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.002670271586430319</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.002887087756755231</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.003088866891418369</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.003277217923835848</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.003453563030471906</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.003693122554795086</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.003890953283605262</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.004064886195612794</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.004223367396546131</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.004370828255447433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.03392589566506671</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.02090505428753946</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01434151756515715</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01029546395735764</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.007208389800229635</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005392153618112128</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.004394622665208797</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003650984695958622</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.003212090175734495</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.003027643171529365</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003034865533967829</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003178224744172569</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00341257893430978</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.003702430992021449</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.004020447977954752</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.004346005639860012</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.004789359457378489</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.005105912501320534</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0050444499822452</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.005576666172939186</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.005857788352865755</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.006045293430244234</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.006185121223901593</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.006290467934175609</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.006365586390892985</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.006412648576258309</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.006433575267120933</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.006430424289070655</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.006405396663229321</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.006360762751958213</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.006298788233666162</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00622167680112043</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.006131529830357987</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.006030319908651043</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.005919874907091525</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.005801869970705135</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.005677825342558045</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.005549108460453091</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.005604254806964666</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.005513577745375677</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.005373726564421668</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.005217910193257937</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.005057825290716734</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -601,6 +1735,132 @@
       </c>
       <c r="E10" t="n">
         <v>0.06089168797463176</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04749927290195161</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03424273253385206</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02254131475267859</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01218560565965141</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.004413785854651345</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.001165773281410205</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.005327636962156946</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.008280457199739487</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01023973631743511</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.01140494910894094</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.01195078533439447</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01202518485618619</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.01175059910481733</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.01122662217445201</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.010533046907307</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.01003158345482671</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.009345398037649576</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.008018305659388443</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.007388578884011218</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.006675870477311724</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.005943212934783464</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.005225765809555408</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.004543751049261992</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.0039086229830625</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.003326391741809124</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.002799554222402583</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.002328285319971971</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.001911211187104893</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.001545933141438226</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.001229394859381524</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.0009581460939276481</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.0007285348322764612</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.0005368480259504806</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.0003794141685395801</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.000252676955356188</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.0001532467205866576</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-7.793467346051185e-05</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-3.814591983399831e-05</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-2.169755990437427e-05</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-2.386621633125824e-05</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-4.062274510044372e-05</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-6.884831828208086e-05</v>
       </c>
     </row>
   </sheetData>
